--- a/Day-07.04/Функции с проверкой условий.xlsx
+++ b/Day-07.04/Функции с проверкой условий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\Desktop\083_\Day-07.04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C6CF65-F5DF-49E9-AAC9-03B24965DFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11A4A75-D405-4E95-B078-B690178543DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="914" activeTab="11" xr2:uid="{986EFDD9-458B-4E53-B61D-F99A97C749EF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="154">
   <si>
     <t>=3 &gt; 5</t>
   </si>
@@ -489,6 +489,15 @@
   </si>
   <si>
     <t>Япония</t>
+  </si>
+  <si>
+    <t>Начальный год</t>
+  </si>
+  <si>
+    <t>Конечный год</t>
+  </si>
+  <si>
+    <t>Суммарный ВВП</t>
   </si>
 </sst>
 </file>
@@ -499,7 +508,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-419]mmmm\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1165,7 +1174,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1383,53 +1392,56 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Гиперссылка" xfId="4" builtinId="8"/>
@@ -1814,7 +1826,7 @@
       <c r="B2" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="95">
+      <c r="C2" s="84">
         <v>2714745.31</v>
       </c>
     </row>
@@ -1822,7 +1834,7 @@
       <c r="B3" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="95">
+      <c r="C3" s="84">
         <v>1434322.83</v>
       </c>
     </row>
@@ -1830,7 +1842,7 @@
       <c r="B4" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="95">
+      <c r="C4" s="84">
         <v>1983811.7</v>
       </c>
     </row>
@@ -1838,7 +1850,7 @@
       <c r="B5" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="95">
+      <c r="C5" s="84">
         <v>929430.78</v>
       </c>
     </row>
@@ -1846,7 +1858,7 @@
       <c r="B6" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="95">
+      <c r="C6" s="84">
         <v>3154066.47</v>
       </c>
     </row>
@@ -1854,7 +1866,7 @@
       <c r="B7" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="95">
+      <c r="C7" s="84">
         <v>1264430.6399999999</v>
       </c>
     </row>
@@ -1862,7 +1874,7 @@
       <c r="B8" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="95">
+      <c r="C8" s="84">
         <v>4674274.42</v>
       </c>
     </row>
@@ -1870,7 +1882,7 @@
       <c r="B9" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="95">
+      <c r="C9" s="84">
         <v>940684.25</v>
       </c>
     </row>
@@ -1878,7 +1890,7 @@
       <c r="B10" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="95">
+      <c r="C10" s="84">
         <v>2497381.2400000002</v>
       </c>
     </row>
@@ -1886,7 +1898,7 @@
       <c r="B11" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="95">
+      <c r="C11" s="84">
         <v>1728260.75</v>
       </c>
     </row>
@@ -1936,10 +1948,10 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="97" t="s">
+      <c r="C21" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="97"/>
+      <c r="D21" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1972,7 +1984,7 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="98">
+      <c r="B3" s="86">
         <v>44967</v>
       </c>
       <c r="C3">
@@ -1980,7 +1992,7 @@
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="98">
+      <c r="B4" s="86">
         <v>44938</v>
       </c>
       <c r="C4">
@@ -1988,7 +2000,7 @@
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="98">
+      <c r="B5" s="86">
         <v>44269</v>
       </c>
       <c r="C5">
@@ -1996,7 +2008,7 @@
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="98">
+      <c r="B6" s="86">
         <v>44856</v>
       </c>
       <c r="C6">
@@ -2004,7 +2016,7 @@
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="98">
+      <c r="B7" s="86">
         <v>45023</v>
       </c>
       <c r="C7">
@@ -2012,7 +2024,7 @@
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="98">
+      <c r="B8" s="86">
         <v>44938</v>
       </c>
       <c r="C8">
@@ -2020,7 +2032,7 @@
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="98">
+      <c r="B9" s="86">
         <v>44269</v>
       </c>
       <c r="C9">
@@ -2028,7 +2040,7 @@
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="98">
+      <c r="B10" s="86">
         <v>44856</v>
       </c>
       <c r="C10">
@@ -2036,7 +2048,7 @@
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="98">
+      <c r="B11" s="86">
         <v>45023</v>
       </c>
       <c r="C11">
@@ -2059,7 +2071,7 @@
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="85" t="s">
         <v>125</v>
       </c>
       <c r="C14">
@@ -2083,10 +2095,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08EE2E8-79AB-4A72-B9C1-9D136485C255}">
-  <dimension ref="B2:D212"/>
+  <dimension ref="B2:H212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2094,170 +2106,206 @@
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="99" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="88" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="88" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>130</v>
       </c>
       <c r="C3">
         <v>2000</v>
       </c>
-      <c r="D3" s="101">
+      <c r="D3" s="89">
         <v>399594</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>130</v>
       </c>
       <c r="C4">
         <v>2001</v>
       </c>
-      <c r="D4" s="101">
+      <c r="D4" s="89">
         <v>377207</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>130</v>
       </c>
       <c r="C5">
         <v>2002</v>
       </c>
-      <c r="D5" s="101">
+      <c r="D5" s="89">
         <v>423676</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>130</v>
       </c>
       <c r="C6">
         <v>2003</v>
       </c>
-      <c r="D6" s="101">
+      <c r="D6" s="89">
         <v>539162</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>130</v>
       </c>
       <c r="C7">
         <v>2004</v>
       </c>
-      <c r="D7" s="101">
+      <c r="D7" s="89">
         <v>654968</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7">
+        <f>SUMIFS(D3:D212, B3:B212,G3, C3:C212,"&gt;="&amp;G4, C3:C212,"&lt;="&amp;G5)</f>
+        <v>2702792</v>
+      </c>
+      <c r="H7" s="89">
+        <f>SUM(D6:D9)</f>
+        <v>2702792</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>130</v>
       </c>
       <c r="C8">
         <v>2005</v>
       </c>
-      <c r="D8" s="101">
+      <c r="D8" s="89">
         <v>730729</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f>SUMPRODUCT( (D3:D212) * (B3:B212=G3) * (C3:C212&gt;=G4) * (C3:C212&lt;=G5) )</f>
+        <v>2702792</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>130</v>
       </c>
       <c r="C9">
         <v>2006</v>
       </c>
-      <c r="D9" s="101">
+      <c r="D9" s="89">
         <v>777933</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>130</v>
       </c>
       <c r="C10">
         <v>2007</v>
       </c>
-      <c r="D10" s="101">
+      <c r="D10" s="89">
         <v>945364</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>130</v>
       </c>
       <c r="C11">
         <v>2008</v>
       </c>
-      <c r="D11" s="101">
+      <c r="D11" s="89">
         <v>1051261</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>130</v>
       </c>
       <c r="C12">
         <v>2009</v>
       </c>
-      <c r="D12" s="101">
+      <c r="D12" s="89">
         <v>993349</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>131</v>
       </c>
       <c r="C13">
         <v>2000</v>
       </c>
-      <c r="D13" s="101">
+      <c r="D13" s="89">
         <v>233354</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>131</v>
       </c>
       <c r="C14">
         <v>2001</v>
       </c>
-      <c r="D14" s="101">
+      <c r="D14" s="89">
         <v>232686</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>131</v>
       </c>
       <c r="C15">
         <v>2002</v>
       </c>
-      <c r="D15" s="101">
+      <c r="D15" s="89">
         <v>253689</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>131</v>
       </c>
       <c r="C16">
         <v>2003</v>
       </c>
-      <c r="D16" s="101">
+      <c r="D16" s="89">
         <v>312285</v>
       </c>
     </row>
@@ -2268,7 +2316,7 @@
       <c r="C17">
         <v>2004</v>
       </c>
-      <c r="D17" s="101">
+      <c r="D17" s="89">
         <v>362160</v>
       </c>
     </row>
@@ -2279,7 +2327,7 @@
       <c r="C18">
         <v>2005</v>
       </c>
-      <c r="D18" s="101">
+      <c r="D18" s="89">
         <v>378006</v>
       </c>
     </row>
@@ -2290,7 +2338,7 @@
       <c r="C19">
         <v>2006</v>
       </c>
-      <c r="D19" s="101">
+      <c r="D19" s="89">
         <v>400337</v>
       </c>
     </row>
@@ -2301,7 +2349,7 @@
       <c r="C20">
         <v>2007</v>
       </c>
-      <c r="D20" s="101">
+      <c r="D20" s="89">
         <v>460280</v>
       </c>
     </row>
@@ -2312,7 +2360,7 @@
       <c r="C21">
         <v>2008</v>
       </c>
-      <c r="D21" s="101">
+      <c r="D21" s="89">
         <v>509765</v>
       </c>
     </row>
@@ -2323,7 +2371,7 @@
       <c r="C22">
         <v>2009</v>
       </c>
-      <c r="D22" s="101">
+      <c r="D22" s="89">
         <v>474580</v>
       </c>
     </row>
@@ -2334,7 +2382,7 @@
       <c r="C23">
         <v>2000</v>
       </c>
-      <c r="D23" s="101">
+      <c r="D23" s="89">
         <v>644734</v>
       </c>
     </row>
@@ -2345,7 +2393,7 @@
       <c r="C24">
         <v>2001</v>
       </c>
-      <c r="D24" s="101">
+      <c r="D24" s="89">
         <v>554185</v>
       </c>
     </row>
@@ -2356,7 +2404,7 @@
       <c r="C25">
         <v>2002</v>
       </c>
-      <c r="D25" s="101">
+      <c r="D25" s="89">
         <v>506043</v>
       </c>
     </row>
@@ -2367,7 +2415,7 @@
       <c r="C26">
         <v>2003</v>
       </c>
-      <c r="D26" s="101">
+      <c r="D26" s="89">
         <v>552383</v>
       </c>
     </row>
@@ -2378,7 +2426,7 @@
       <c r="C27">
         <v>2004</v>
       </c>
-      <c r="D27" s="101">
+      <c r="D27" s="89">
         <v>663734</v>
       </c>
     </row>
@@ -2389,7 +2437,7 @@
       <c r="C28">
         <v>2005</v>
       </c>
-      <c r="D28" s="101">
+      <c r="D28" s="89">
         <v>882043</v>
       </c>
     </row>
@@ -2400,7 +2448,7 @@
       <c r="C29">
         <v>2006</v>
       </c>
-      <c r="D29" s="101">
+      <c r="D29" s="89">
         <v>1089255</v>
       </c>
     </row>
@@ -2411,7 +2459,7 @@
       <c r="C30">
         <v>2007</v>
       </c>
-      <c r="D30" s="101">
+      <c r="D30" s="89">
         <v>1366854</v>
       </c>
     </row>
@@ -2422,7 +2470,7 @@
       <c r="C31">
         <v>2008</v>
       </c>
-      <c r="D31" s="101">
+      <c r="D31" s="89">
         <v>1653538</v>
       </c>
     </row>
@@ -2433,7 +2481,7 @@
       <c r="C32">
         <v>2009</v>
       </c>
-      <c r="D32" s="101">
+      <c r="D32" s="89">
         <v>1622311</v>
       </c>
     </row>
@@ -2444,7 +2492,7 @@
       <c r="C33">
         <v>2000</v>
       </c>
-      <c r="D33" s="101">
+      <c r="D33" s="89">
         <v>1496606</v>
       </c>
     </row>
@@ -2455,7 +2503,7 @@
       <c r="C34">
         <v>2001</v>
       </c>
-      <c r="D34" s="101">
+      <c r="D34" s="89">
         <v>1485657</v>
       </c>
     </row>
@@ -2466,7 +2514,7 @@
       <c r="C35">
         <v>2002</v>
       </c>
-      <c r="D35" s="101">
+      <c r="D35" s="89">
         <v>1623558</v>
       </c>
     </row>
@@ -2477,7 +2525,7 @@
       <c r="C36">
         <v>2003</v>
       </c>
-      <c r="D36" s="101">
+      <c r="D36" s="89">
         <v>1877117</v>
       </c>
     </row>
@@ -2488,7 +2536,7 @@
       <c r="C37">
         <v>2004</v>
       </c>
-      <c r="D37" s="101">
+      <c r="D37" s="89">
         <v>2221915</v>
       </c>
     </row>
@@ -2499,7 +2547,7 @@
       <c r="C38">
         <v>2005</v>
       </c>
-      <c r="D38" s="101">
+      <c r="D38" s="89">
         <v>2324184</v>
       </c>
     </row>
@@ -2510,7 +2558,7 @@
       <c r="C39">
         <v>2006</v>
       </c>
-      <c r="D39" s="101">
+      <c r="D39" s="89">
         <v>2486598</v>
       </c>
     </row>
@@ -2521,7 +2569,7 @@
       <c r="C40">
         <v>2007</v>
       </c>
-      <c r="D40" s="101">
+      <c r="D40" s="89">
         <v>2858176</v>
       </c>
     </row>
@@ -2532,7 +2580,7 @@
       <c r="C41">
         <v>2008</v>
       </c>
-      <c r="D41" s="101">
+      <c r="D41" s="89">
         <v>2709573</v>
       </c>
     </row>
@@ -2543,7 +2591,7 @@
       <c r="C42">
         <v>2009</v>
       </c>
-      <c r="D42" s="101">
+      <c r="D42" s="89">
         <v>2217427</v>
       </c>
     </row>
@@ -2554,7 +2602,7 @@
       <c r="C43">
         <v>2000</v>
       </c>
-      <c r="D43" s="101">
+      <c r="D43" s="89">
         <v>1891934</v>
       </c>
     </row>
@@ -2565,7 +2613,7 @@
       <c r="C44">
         <v>2001</v>
       </c>
-      <c r="D44" s="101">
+      <c r="D44" s="89">
         <v>1882511</v>
       </c>
     </row>
@@ -2576,7 +2624,7 @@
       <c r="C45">
         <v>2002</v>
       </c>
-      <c r="D45" s="101">
+      <c r="D45" s="89">
         <v>2013691</v>
       </c>
     </row>
@@ -2587,7 +2635,7 @@
       <c r="C46">
         <v>2003</v>
       </c>
-      <c r="D46" s="101">
+      <c r="D46" s="89">
         <v>2428452</v>
       </c>
     </row>
@@ -2598,7 +2646,7 @@
       <c r="C47">
         <v>2004</v>
       </c>
-      <c r="D47" s="101">
+      <c r="D47" s="89">
         <v>2729923</v>
       </c>
     </row>
@@ -2609,7 +2657,7 @@
       <c r="C48">
         <v>2005</v>
       </c>
-      <c r="D48" s="101">
+      <c r="D48" s="89">
         <v>2771057</v>
       </c>
     </row>
@@ -2620,7 +2668,7 @@
       <c r="C49">
         <v>2006</v>
       </c>
-      <c r="D49" s="101">
+      <c r="D49" s="89">
         <v>2905445</v>
       </c>
     </row>
@@ -2631,7 +2679,7 @@
       <c r="C50">
         <v>2007</v>
       </c>
-      <c r="D50" s="101">
+      <c r="D50" s="89">
         <v>3328589</v>
       </c>
     </row>
@@ -2642,7 +2690,7 @@
       <c r="C51">
         <v>2008</v>
       </c>
-      <c r="D51" s="101">
+      <c r="D51" s="89">
         <v>3640727</v>
       </c>
     </row>
@@ -2653,7 +2701,7 @@
       <c r="C52">
         <v>2009</v>
       </c>
-      <c r="D52" s="101">
+      <c r="D52" s="89">
         <v>3306780</v>
       </c>
     </row>
@@ -2664,7 +2712,7 @@
       <c r="C53">
         <v>2000</v>
       </c>
-      <c r="D53" s="101">
+      <c r="D53" s="89">
         <v>474570</v>
       </c>
     </row>
@@ -2675,7 +2723,7 @@
       <c r="C54">
         <v>2001</v>
       </c>
-      <c r="D54" s="101">
+      <c r="D54" s="89">
         <v>492736</v>
       </c>
     </row>
@@ -2686,7 +2734,7 @@
       <c r="C55">
         <v>2002</v>
       </c>
-      <c r="D55" s="101">
+      <c r="D55" s="89">
         <v>522715</v>
       </c>
     </row>
@@ -2697,7 +2745,7 @@
       <c r="C56">
         <v>2003</v>
       </c>
-      <c r="D56" s="101">
+      <c r="D56" s="89">
         <v>618186</v>
       </c>
     </row>
@@ -2708,7 +2756,7 @@
       <c r="C57">
         <v>2004</v>
       </c>
-      <c r="D57" s="101">
+      <c r="D57" s="89">
         <v>721589</v>
       </c>
     </row>
@@ -2719,7 +2767,7 @@
       <c r="C58">
         <v>2005</v>
       </c>
-      <c r="D58" s="101">
+      <c r="D58" s="89">
         <v>834218</v>
       </c>
     </row>
@@ -2730,7 +2778,7 @@
       <c r="C59">
         <v>2006</v>
       </c>
-      <c r="D59" s="101">
+      <c r="D59" s="89">
         <v>949117</v>
       </c>
     </row>
@@ -2741,7 +2789,7 @@
       <c r="C60">
         <v>2007</v>
       </c>
-      <c r="D60" s="101">
+      <c r="D60" s="89">
         <v>1238478</v>
       </c>
     </row>
@@ -2752,7 +2800,7 @@
       <c r="C61">
         <v>2008</v>
       </c>
-      <c r="D61" s="101">
+      <c r="D61" s="89">
         <v>1223206</v>
       </c>
     </row>
@@ -2763,7 +2811,7 @@
       <c r="C62">
         <v>2009</v>
       </c>
-      <c r="D62" s="101">
+      <c r="D62" s="89">
         <v>1365343</v>
       </c>
     </row>
@@ -2774,7 +2822,7 @@
       <c r="C63">
         <v>2000</v>
       </c>
-      <c r="D63" s="101">
+      <c r="D63" s="89">
         <v>165021</v>
       </c>
     </row>
@@ -2785,7 +2833,7 @@
       <c r="C64">
         <v>2001</v>
       </c>
-      <c r="D64" s="101">
+      <c r="D64" s="89">
         <v>160447</v>
       </c>
     </row>
@@ -2796,7 +2844,7 @@
       <c r="C65">
         <v>2002</v>
       </c>
-      <c r="D65" s="101">
+      <c r="D65" s="89">
         <v>195661</v>
       </c>
     </row>
@@ -2807,7 +2855,7 @@
       <c r="C66">
         <v>2003</v>
       </c>
-      <c r="D66" s="101">
+      <c r="D66" s="89">
         <v>234848</v>
       </c>
     </row>
@@ -2818,7 +2866,7 @@
       <c r="C67">
         <v>2004</v>
       </c>
-      <c r="D67" s="101">
+      <c r="D67" s="89">
         <v>257032</v>
       </c>
     </row>
@@ -2829,7 +2877,7 @@
       <c r="C68">
         <v>2005</v>
       </c>
-      <c r="D68" s="101">
+      <c r="D68" s="89">
         <v>285773</v>
       </c>
     </row>
@@ -2840,7 +2888,7 @@
       <c r="C69">
         <v>2006</v>
       </c>
-      <c r="D69" s="101">
+      <c r="D69" s="89">
         <v>364362</v>
       </c>
     </row>
@@ -2851,7 +2899,7 @@
       <c r="C70">
         <v>2007</v>
       </c>
-      <c r="D70" s="101">
+      <c r="D70" s="89">
         <v>432183</v>
       </c>
     </row>
@@ -2862,7 +2910,7 @@
       <c r="C71">
         <v>2008</v>
       </c>
-      <c r="D71" s="101">
+      <c r="D71" s="89">
         <v>510839</v>
       </c>
     </row>
@@ -2873,7 +2921,7 @@
       <c r="C72">
         <v>2009</v>
       </c>
-      <c r="D72" s="101">
+      <c r="D72" s="89">
         <v>538803</v>
       </c>
     </row>
@@ -2884,7 +2932,7 @@
       <c r="C73">
         <v>2000</v>
       </c>
-      <c r="D73" s="101">
+      <c r="D73" s="89">
         <v>582048</v>
       </c>
     </row>
@@ -2895,7 +2943,7 @@
       <c r="C74">
         <v>2001</v>
       </c>
-      <c r="D74" s="101">
+      <c r="D74" s="89">
         <v>609379</v>
       </c>
     </row>
@@ -2906,7 +2954,7 @@
       <c r="C75">
         <v>2002</v>
       </c>
-      <c r="D75" s="101">
+      <c r="D75" s="89">
         <v>688725</v>
       </c>
     </row>
@@ -2917,7 +2965,7 @@
       <c r="C76">
         <v>2003</v>
       </c>
-      <c r="D76" s="101">
+      <c r="D76" s="89">
         <v>885531</v>
       </c>
     </row>
@@ -2928,7 +2976,7 @@
       <c r="C77">
         <v>2004</v>
       </c>
-      <c r="D77" s="101">
+      <c r="D77" s="89">
         <v>1045984</v>
       </c>
     </row>
@@ -2939,7 +2987,7 @@
       <c r="C78">
         <v>2005</v>
       </c>
-      <c r="D78" s="101">
+      <c r="D78" s="89">
         <v>1132763</v>
       </c>
     </row>
@@ -2950,7 +2998,7 @@
       <c r="C79">
         <v>2006</v>
       </c>
-      <c r="D79" s="101">
+      <c r="D79" s="89">
         <v>1237501</v>
       </c>
     </row>
@@ -2961,7 +3009,7 @@
       <c r="C80">
         <v>2007</v>
       </c>
-      <c r="D80" s="101">
+      <c r="D80" s="89">
         <v>1443500</v>
       </c>
     </row>
@@ -2972,7 +3020,7 @@
       <c r="C81">
         <v>2008</v>
       </c>
-      <c r="D81" s="101">
+      <c r="D81" s="89">
         <v>1600913</v>
       </c>
     </row>
@@ -2983,7 +3031,7 @@
       <c r="C82">
         <v>2009</v>
       </c>
-      <c r="D82" s="101">
+      <c r="D82" s="89">
         <v>1458111</v>
       </c>
     </row>
@@ -2994,7 +3042,7 @@
       <c r="C83">
         <v>2000</v>
       </c>
-      <c r="D83" s="101">
+      <c r="D83" s="89">
         <v>1107248</v>
       </c>
     </row>
@@ -3005,7 +3053,7 @@
       <c r="C84">
         <v>2001</v>
       </c>
-      <c r="D84" s="101">
+      <c r="D84" s="89">
         <v>1124668</v>
       </c>
     </row>
@@ -3016,7 +3064,7 @@
       <c r="C85">
         <v>2002</v>
       </c>
-      <c r="D85" s="101">
+      <c r="D85" s="89">
         <v>1229515</v>
       </c>
     </row>
@@ -3027,7 +3075,7 @@
       <c r="C86">
         <v>2003</v>
       </c>
-      <c r="D86" s="101">
+      <c r="D86" s="89">
         <v>1517402</v>
       </c>
     </row>
@@ -3038,7 +3086,7 @@
       <c r="C87">
         <v>2004</v>
       </c>
-      <c r="D87" s="101">
+      <c r="D87" s="89">
         <v>1737800</v>
       </c>
     </row>
@@ -3049,7 +3097,7 @@
       <c r="C88">
         <v>2005</v>
       </c>
-      <c r="D88" s="101">
+      <c r="D88" s="89">
         <v>1789378</v>
       </c>
     </row>
@@ -3060,7 +3108,7 @@
       <c r="C89">
         <v>2006</v>
       </c>
-      <c r="D89" s="101">
+      <c r="D89" s="89">
         <v>1874722</v>
       </c>
     </row>
@@ -3071,7 +3119,7 @@
       <c r="C90">
         <v>2007</v>
       </c>
-      <c r="D90" s="101">
+      <c r="D90" s="89">
         <v>2130241</v>
       </c>
     </row>
@@ -3082,7 +3130,7 @@
       <c r="C91">
         <v>2008</v>
       </c>
-      <c r="D91" s="101">
+      <c r="D91" s="89">
         <v>2318162</v>
       </c>
     </row>
@@ -3093,7 +3141,7 @@
       <c r="C92">
         <v>2009</v>
       </c>
-      <c r="D92" s="101">
+      <c r="D92" s="89">
         <v>2116627</v>
       </c>
     </row>
@@ -3104,7 +3152,7 @@
       <c r="C93">
         <v>2000</v>
       </c>
-      <c r="D93" s="101">
+      <c r="D93" s="89">
         <v>739451</v>
       </c>
     </row>
@@ -3115,7 +3163,7 @@
       <c r="C94">
         <v>2001</v>
       </c>
-      <c r="D94" s="101">
+      <c r="D94" s="89">
         <v>732735</v>
       </c>
     </row>
@@ -3126,7 +3174,7 @@
       <c r="C95">
         <v>2002</v>
       </c>
-      <c r="D95" s="101">
+      <c r="D95" s="89">
         <v>752523</v>
       </c>
     </row>
@@ -3137,7 +3185,7 @@
       <c r="C96">
         <v>2003</v>
       </c>
-      <c r="D96" s="101">
+      <c r="D96" s="89">
         <v>887782</v>
       </c>
     </row>
@@ -3148,7 +3196,7 @@
       <c r="C97">
         <v>2004</v>
       </c>
-      <c r="D97" s="101">
+      <c r="D97" s="89">
         <v>1018386</v>
       </c>
     </row>
@@ -3159,7 +3207,7 @@
       <c r="C98">
         <v>2005</v>
       </c>
-      <c r="D98" s="101">
+      <c r="D98" s="89">
         <v>1164179</v>
       </c>
     </row>
@@ -3170,7 +3218,7 @@
       <c r="C99">
         <v>2006</v>
       </c>
-      <c r="D99" s="101">
+      <c r="D99" s="89">
         <v>1310795</v>
       </c>
     </row>
@@ -3181,7 +3229,7 @@
       <c r="C100">
         <v>2007</v>
       </c>
-      <c r="D100" s="101">
+      <c r="D100" s="89">
         <v>1457873</v>
       </c>
     </row>
@@ -3192,7 +3240,7 @@
       <c r="C101">
         <v>2008</v>
       </c>
-      <c r="D101" s="101">
+      <c r="D101" s="89">
         <v>1542561</v>
       </c>
     </row>
@@ -3203,7 +3251,7 @@
       <c r="C102">
         <v>2009</v>
       </c>
-      <c r="D102" s="101">
+      <c r="D102" s="89">
         <v>1370839</v>
       </c>
     </row>
@@ -3214,7 +3262,7 @@
       <c r="C103">
         <v>2000</v>
       </c>
-      <c r="D103" s="101">
+      <c r="D103" s="89">
         <v>1198477</v>
       </c>
     </row>
@@ -3225,7 +3273,7 @@
       <c r="C104">
         <v>2001</v>
       </c>
-      <c r="D104" s="101">
+      <c r="D104" s="89">
         <v>1324814</v>
       </c>
     </row>
@@ -3236,7 +3284,7 @@
       <c r="C105">
         <v>2002</v>
       </c>
-      <c r="D105" s="101">
+      <c r="D105" s="89">
         <v>1453833</v>
       </c>
     </row>
@@ -3247,7 +3295,7 @@
       <c r="C106">
         <v>2003</v>
       </c>
-      <c r="D106" s="101">
+      <c r="D106" s="89">
         <v>1640961</v>
       </c>
     </row>
@@ -3258,7 +3306,7 @@
       <c r="C107">
         <v>2004</v>
       </c>
-      <c r="D107" s="101">
+      <c r="D107" s="89">
         <v>1931646</v>
       </c>
     </row>
@@ -3269,7 +3317,7 @@
       <c r="C108">
         <v>2005</v>
       </c>
-      <c r="D108" s="101">
+      <c r="D108" s="89">
         <v>2256919</v>
       </c>
     </row>
@@ -3280,7 +3328,7 @@
       <c r="C109">
         <v>2006</v>
       </c>
-      <c r="D109" s="101">
+      <c r="D109" s="89">
         <v>2712917</v>
       </c>
     </row>
@@ -3291,7 +3339,7 @@
       <c r="C110">
         <v>2007</v>
       </c>
-      <c r="D110" s="101">
+      <c r="D110" s="89">
         <v>3494235</v>
       </c>
     </row>
@@ -3302,7 +3350,7 @@
       <c r="C111">
         <v>2008</v>
       </c>
-      <c r="D111" s="101">
+      <c r="D111" s="89">
         <v>4519951</v>
       </c>
     </row>
@@ -3313,7 +3361,7 @@
       <c r="C112">
         <v>2009</v>
       </c>
-      <c r="D112" s="101">
+      <c r="D112" s="89">
         <v>4990526</v>
       </c>
     </row>
@@ -3324,7 +3372,7 @@
       <c r="C113">
         <v>2000</v>
       </c>
-      <c r="D113" s="101">
+      <c r="D113" s="89">
         <v>692029</v>
       </c>
     </row>
@@ -3335,7 +3383,7 @@
       <c r="C114">
         <v>2001</v>
       </c>
-      <c r="D114" s="101">
+      <c r="D114" s="89">
         <v>733453</v>
       </c>
     </row>
@@ -3346,7 +3394,7 @@
       <c r="C115">
         <v>2002</v>
       </c>
-      <c r="D115" s="101">
+      <c r="D115" s="89">
         <v>750450</v>
       </c>
     </row>
@@ -3357,7 +3405,7 @@
       <c r="C116">
         <v>2003</v>
       </c>
-      <c r="D116" s="101">
+      <c r="D116" s="89">
         <v>722182</v>
       </c>
     </row>
@@ -3368,7 +3416,7 @@
       <c r="C117">
         <v>2004</v>
       </c>
-      <c r="D117" s="101">
+      <c r="D117" s="89">
         <v>774591</v>
       </c>
     </row>
@@ -3379,7 +3427,7 @@
       <c r="C118">
         <v>2005</v>
       </c>
-      <c r="D118" s="101">
+      <c r="D118" s="89">
         <v>869718</v>
       </c>
     </row>
@@ -3390,7 +3438,7 @@
       <c r="C119">
         <v>2006</v>
       </c>
-      <c r="D119" s="101">
+      <c r="D119" s="89">
         <v>965774</v>
       </c>
     </row>
@@ -3401,7 +3449,7 @@
       <c r="C120">
         <v>2007</v>
       </c>
-      <c r="D120" s="101">
+      <c r="D120" s="89">
         <v>1042687</v>
       </c>
     </row>
@@ -3412,7 +3460,7 @@
       <c r="C121">
         <v>2008</v>
       </c>
-      <c r="D121" s="101">
+      <c r="D121" s="89">
         <v>1100673</v>
       </c>
     </row>
@@ -3423,7 +3471,7 @@
       <c r="C122">
         <v>2009</v>
       </c>
-      <c r="D122" s="101">
+      <c r="D122" s="89">
         <v>894566</v>
       </c>
     </row>
@@ -3434,7 +3482,7 @@
       <c r="C123">
         <v>2000</v>
       </c>
-      <c r="D123" s="101">
+      <c r="D123" s="89">
         <v>386204</v>
       </c>
     </row>
@@ -3445,7 +3493,7 @@
       <c r="C124">
         <v>2001</v>
       </c>
-      <c r="D124" s="101">
+      <c r="D124" s="89">
         <v>400998</v>
       </c>
     </row>
@@ -3456,7 +3504,7 @@
       <c r="C125">
         <v>2002</v>
       </c>
-      <c r="D125" s="101">
+      <c r="D125" s="89">
         <v>439357</v>
       </c>
     </row>
@@ -3467,7 +3515,7 @@
       <c r="C126">
         <v>2003</v>
       </c>
-      <c r="D126" s="101">
+      <c r="D126" s="89">
         <v>539343</v>
       </c>
     </row>
@@ -3478,7 +3526,7 @@
       <c r="C127">
         <v>2004</v>
       </c>
-      <c r="D127" s="101">
+      <c r="D127" s="89">
         <v>610691</v>
       </c>
     </row>
@@ -3489,7 +3537,7 @@
       <c r="C128">
         <v>2005</v>
       </c>
-      <c r="D128" s="101">
+      <c r="D128" s="89">
         <v>639579</v>
       </c>
     </row>
@@ -3500,7 +3548,7 @@
       <c r="C129">
         <v>2006</v>
       </c>
-      <c r="D129" s="101">
+      <c r="D129" s="89">
         <v>678321</v>
       </c>
     </row>
@@ -3511,7 +3559,7 @@
       <c r="C130">
         <v>2007</v>
       </c>
-      <c r="D130" s="101">
+      <c r="D130" s="89">
         <v>783692</v>
       </c>
     </row>
@@ -3522,7 +3570,7 @@
       <c r="C131">
         <v>2008</v>
       </c>
-      <c r="D131" s="101">
+      <c r="D131" s="89">
         <v>874906</v>
       </c>
     </row>
@@ -3533,7 +3581,7 @@
       <c r="C132">
         <v>2009</v>
       </c>
-      <c r="D132" s="101">
+      <c r="D132" s="89">
         <v>798400</v>
       </c>
     </row>
@@ -3544,7 +3592,7 @@
       <c r="C133">
         <v>2000</v>
       </c>
-      <c r="D133" s="101">
+      <c r="D133" s="89">
         <v>171263</v>
       </c>
     </row>
@@ -3555,7 +3603,7 @@
       <c r="C134">
         <v>2001</v>
       </c>
-      <c r="D134" s="101">
+      <c r="D134" s="89">
         <v>190421</v>
       </c>
     </row>
@@ -3566,7 +3614,7 @@
       <c r="C135">
         <v>2002</v>
       </c>
-      <c r="D135" s="101">
+      <c r="D135" s="89">
         <v>198205</v>
       </c>
     </row>
@@ -3577,7 +3625,7 @@
       <c r="C136">
         <v>2003</v>
       </c>
-      <c r="D136" s="101">
+      <c r="D136" s="89">
         <v>216811</v>
       </c>
     </row>
@@ -3588,7 +3636,7 @@
       <c r="C137">
         <v>2004</v>
       </c>
-      <c r="D137" s="101">
+      <c r="D137" s="89">
         <v>253021</v>
       </c>
     </row>
@@ -3599,7 +3647,7 @@
       <c r="C138">
         <v>2005</v>
       </c>
-      <c r="D138" s="101">
+      <c r="D138" s="89">
         <v>303976</v>
       </c>
     </row>
@@ -3610,7 +3658,7 @@
       <c r="C139">
         <v>2006</v>
       </c>
-      <c r="D139" s="101">
+      <c r="D139" s="89">
         <v>341670</v>
       </c>
     </row>
@@ -3621,7 +3669,7 @@
       <c r="C140">
         <v>2007</v>
       </c>
-      <c r="D140" s="101">
+      <c r="D140" s="89">
         <v>425321</v>
       </c>
     </row>
@@ -3632,7 +3680,7 @@
       <c r="C141">
         <v>2008</v>
       </c>
-      <c r="D141" s="101">
+      <c r="D141" s="89">
         <v>529432</v>
       </c>
     </row>
@@ -3643,7 +3691,7 @@
       <c r="C142">
         <v>2009</v>
       </c>
-      <c r="D142" s="101">
+      <c r="D142" s="89">
         <v>431457</v>
       </c>
     </row>
@@ -3654,7 +3702,7 @@
       <c r="C143">
         <v>2000</v>
       </c>
-      <c r="D143" s="101">
+      <c r="D143" s="89">
         <v>259702</v>
       </c>
     </row>
@@ -3665,7 +3713,7 @@
       <c r="C144">
         <v>2001</v>
       </c>
-      <c r="D144" s="101">
+      <c r="D144" s="89">
         <v>306583</v>
       </c>
     </row>
@@ -3676,7 +3724,7 @@
       <c r="C145">
         <v>2002</v>
       </c>
-      <c r="D145" s="101">
+      <c r="D145" s="89">
         <v>345125</v>
       </c>
     </row>
@@ -3687,7 +3735,7 @@
       <c r="C146">
         <v>2003</v>
       </c>
-      <c r="D146" s="101">
+      <c r="D146" s="89">
         <v>430289</v>
       </c>
     </row>
@@ -3698,7 +3746,7 @@
       <c r="C147">
         <v>2004</v>
       </c>
-      <c r="D147" s="101">
+      <c r="D147" s="89">
         <v>591177</v>
       </c>
     </row>
@@ -3709,7 +3757,7 @@
       <c r="C148">
         <v>2005</v>
       </c>
-      <c r="D148" s="101">
+      <c r="D148" s="89">
         <v>763704</v>
       </c>
     </row>
@@ -3720,7 +3768,7 @@
       <c r="C149">
         <v>2006</v>
       </c>
-      <c r="D149" s="101">
+      <c r="D149" s="89">
         <v>989932</v>
       </c>
     </row>
@@ -3731,7 +3779,7 @@
       <c r="C150">
         <v>2007</v>
       </c>
-      <c r="D150" s="101">
+      <c r="D150" s="89">
         <v>1299703</v>
       </c>
     </row>
@@ -3742,7 +3790,7 @@
       <c r="C151">
         <v>2008</v>
       </c>
-      <c r="D151" s="101">
+      <c r="D151" s="89">
         <v>1660846</v>
       </c>
     </row>
@@ -3753,7 +3801,7 @@
       <c r="C152">
         <v>2009</v>
       </c>
-      <c r="D152" s="101">
+      <c r="D152" s="89">
         <v>1222645</v>
       </c>
     </row>
@@ -3764,7 +3812,7 @@
       <c r="C153">
         <v>2000</v>
       </c>
-      <c r="D153" s="101">
+      <c r="D153" s="89">
         <v>10289725</v>
       </c>
     </row>
@@ -3775,7 +3823,7 @@
       <c r="C154">
         <v>2001</v>
       </c>
-      <c r="D154" s="101">
+      <c r="D154" s="89">
         <v>10625275</v>
       </c>
     </row>
@@ -3786,7 +3834,7 @@
       <c r="C155">
         <v>2002</v>
       </c>
-      <c r="D155" s="101">
+      <c r="D155" s="89">
         <v>10980200</v>
       </c>
     </row>
@@ -3797,7 +3845,7 @@
       <c r="C156">
         <v>2003</v>
       </c>
-      <c r="D156" s="101">
+      <c r="D156" s="89">
         <v>11512275</v>
       </c>
     </row>
@@ -3808,7 +3856,7 @@
       <c r="C157">
         <v>2004</v>
       </c>
-      <c r="D157" s="101">
+      <c r="D157" s="89">
         <v>12277025</v>
       </c>
     </row>
@@ -3819,7 +3867,7 @@
       <c r="C158">
         <v>2005</v>
       </c>
-      <c r="D158" s="101">
+      <c r="D158" s="89">
         <v>13095425</v>
       </c>
     </row>
@@ -3830,7 +3878,7 @@
       <c r="C159">
         <v>2006</v>
       </c>
-      <c r="D159" s="101">
+      <c r="D159" s="89">
         <v>13857900</v>
       </c>
     </row>
@@ -3841,7 +3889,7 @@
       <c r="C160">
         <v>2007</v>
       </c>
-      <c r="D160" s="101">
+      <c r="D160" s="89">
         <v>14480350</v>
       </c>
     </row>
@@ -3852,7 +3900,7 @@
       <c r="C161">
         <v>2008</v>
       </c>
-      <c r="D161" s="101">
+      <c r="D161" s="89">
         <v>14720250</v>
       </c>
     </row>
@@ -3863,7 +3911,7 @@
       <c r="C162">
         <v>2009</v>
       </c>
-      <c r="D162" s="101">
+      <c r="D162" s="89">
         <v>14417950</v>
       </c>
     </row>
@@ -3874,7 +3922,7 @@
       <c r="C163">
         <v>2000</v>
       </c>
-      <c r="D163" s="101">
+      <c r="D163" s="89">
         <v>266560</v>
       </c>
     </row>
@@ -3885,7 +3933,7 @@
       <c r="C164">
         <v>2001</v>
       </c>
-      <c r="D164" s="101">
+      <c r="D164" s="89">
         <v>196007</v>
       </c>
     </row>
@@ -3896,7 +3944,7 @@
       <c r="C165">
         <v>2002</v>
       </c>
-      <c r="D165" s="101">
+      <c r="D165" s="89">
         <v>232530</v>
       </c>
     </row>
@@ -3907,7 +3955,7 @@
       <c r="C166">
         <v>2003</v>
       </c>
-      <c r="D166" s="101">
+      <c r="D166" s="89">
         <v>303008</v>
       </c>
     </row>
@@ -3918,7 +3966,7 @@
       <c r="C167">
         <v>2004</v>
       </c>
-      <c r="D167" s="101">
+      <c r="D167" s="89">
         <v>392156</v>
       </c>
     </row>
@@ -3929,7 +3977,7 @@
       <c r="C168">
         <v>2005</v>
       </c>
-      <c r="D168" s="101">
+      <c r="D168" s="89">
         <v>482986</v>
       </c>
     </row>
@@ -3940,7 +3988,7 @@
       <c r="C169">
         <v>2006</v>
       </c>
-      <c r="D169" s="101">
+      <c r="D169" s="89">
         <v>530917</v>
       </c>
     </row>
@@ -3951,7 +3999,7 @@
       <c r="C170">
         <v>2007</v>
       </c>
-      <c r="D170" s="101">
+      <c r="D170" s="89">
         <v>647140</v>
       </c>
     </row>
@@ -3962,7 +4010,7 @@
       <c r="C171">
         <v>2008</v>
       </c>
-      <c r="D171" s="101">
+      <c r="D171" s="89">
         <v>730325</v>
       </c>
     </row>
@@ -3973,7 +4021,7 @@
       <c r="C172">
         <v>2009</v>
       </c>
-      <c r="D172" s="101">
+      <c r="D172" s="89">
         <v>614570</v>
       </c>
     </row>
@@ -3984,7 +4032,7 @@
       <c r="C173">
         <v>2000</v>
       </c>
-      <c r="D173" s="101">
+      <c r="D173" s="89">
         <v>1330224</v>
       </c>
     </row>
@@ -3995,7 +4043,7 @@
       <c r="C174">
         <v>2001</v>
       </c>
-      <c r="D174" s="101">
+      <c r="D174" s="89">
         <v>1339453</v>
       </c>
     </row>
@@ -4006,7 +4054,7 @@
       <c r="C175">
         <v>2002</v>
       </c>
-      <c r="D175" s="101">
+      <c r="D175" s="89">
         <v>1457171</v>
       </c>
     </row>
@@ -4017,7 +4065,7 @@
       <c r="C176">
         <v>2003</v>
       </c>
-      <c r="D176" s="101">
+      <c r="D176" s="89">
         <v>1795644</v>
       </c>
     </row>
@@ -4028,7 +4076,7 @@
       <c r="C177">
         <v>2004</v>
       </c>
-      <c r="D177" s="101">
+      <c r="D177" s="89">
         <v>2058380</v>
       </c>
     </row>
@@ -4039,7 +4087,7 @@
       <c r="C178">
         <v>2005</v>
       </c>
-      <c r="D178" s="101">
+      <c r="D178" s="89">
         <v>2140266</v>
       </c>
     </row>
@@ -4050,7 +4098,7 @@
       <c r="C179">
         <v>2006</v>
       </c>
-      <c r="D179" s="101">
+      <c r="D179" s="89">
         <v>2257802</v>
       </c>
     </row>
@@ -4061,7 +4109,7 @@
       <c r="C180">
         <v>2007</v>
       </c>
-      <c r="D180" s="101">
+      <c r="D180" s="89">
         <v>2586104</v>
       </c>
     </row>
@@ -4072,7 +4120,7 @@
       <c r="C181">
         <v>2008</v>
       </c>
-      <c r="D181" s="101">
+      <c r="D181" s="89">
         <v>2845111</v>
       </c>
     </row>
@@ -4083,7 +4131,7 @@
       <c r="C182">
         <v>2009</v>
       </c>
-      <c r="D182" s="101">
+      <c r="D182" s="89">
         <v>2626486</v>
       </c>
     </row>
@@ -4094,7 +4142,7 @@
       <c r="C183">
         <v>2000</v>
       </c>
-      <c r="D183" s="101">
+      <c r="D183" s="89">
         <v>256036</v>
       </c>
     </row>
@@ -4105,7 +4153,7 @@
       <c r="C184">
         <v>2001</v>
       </c>
-      <c r="D184" s="101">
+      <c r="D184" s="89">
         <v>262645</v>
       </c>
     </row>
@@ -4116,7 +4164,7 @@
       <c r="C185">
         <v>2002</v>
       </c>
-      <c r="D185" s="101">
+      <c r="D185" s="89">
         <v>286657</v>
       </c>
     </row>
@@ -4127,7 +4175,7 @@
       <c r="C186">
         <v>2003</v>
       </c>
-      <c r="D186" s="101">
+      <c r="D186" s="89">
         <v>334587</v>
       </c>
     </row>
@@ -4138,7 +4186,7 @@
       <c r="C187">
         <v>2004</v>
       </c>
-      <c r="D187" s="101">
+      <c r="D187" s="89">
         <v>374226</v>
       </c>
     </row>
@@ -4149,7 +4197,7 @@
       <c r="C188">
         <v>2005</v>
       </c>
-      <c r="D188" s="101">
+      <c r="D188" s="89">
         <v>384755</v>
       </c>
     </row>
@@ -4160,7 +4208,7 @@
       <c r="C189">
         <v>2006</v>
       </c>
-      <c r="D189" s="101">
+      <c r="D189" s="89">
         <v>405183</v>
       </c>
     </row>
@@ -4171,7 +4219,7 @@
       <c r="C190">
         <v>2007</v>
       </c>
-      <c r="D190" s="101">
+      <c r="D190" s="89">
         <v>450530</v>
       </c>
     </row>
@@ -4182,7 +4230,7 @@
       <c r="C191">
         <v>2008</v>
       </c>
-      <c r="D191" s="101">
+      <c r="D191" s="89">
         <v>524289</v>
       </c>
     </row>
@@ -4193,7 +4241,7 @@
       <c r="C192">
         <v>2009</v>
       </c>
-      <c r="D192" s="101">
+      <c r="D192" s="89">
         <v>509466</v>
       </c>
     </row>
@@ -4204,7 +4252,7 @@
       <c r="C193">
         <v>2000</v>
       </c>
-      <c r="D193" s="101">
+      <c r="D193" s="89">
         <v>533385</v>
       </c>
     </row>
@@ -4215,7 +4263,7 @@
       <c r="C194">
         <v>2001</v>
       </c>
-      <c r="D194" s="101">
+      <c r="D194" s="89">
         <v>504584</v>
       </c>
     </row>
@@ -4226,7 +4274,7 @@
       <c r="C195">
         <v>2002</v>
       </c>
-      <c r="D195" s="101">
+      <c r="D195" s="89">
         <v>575930</v>
       </c>
     </row>
@@ -4237,7 +4285,7 @@
       <c r="C196">
         <v>2003</v>
       </c>
-      <c r="D196" s="101">
+      <c r="D196" s="89">
         <v>643760</v>
       </c>
     </row>
@@ -4248,7 +4296,7 @@
       <c r="C197">
         <v>2004</v>
       </c>
-      <c r="D197" s="101">
+      <c r="D197" s="89">
         <v>721976</v>
       </c>
     </row>
@@ -4259,7 +4307,7 @@
       <c r="C198">
         <v>2005</v>
       </c>
-      <c r="D198" s="101">
+      <c r="D198" s="89">
         <v>844866</v>
       </c>
     </row>
@@ -4270,7 +4318,7 @@
       <c r="C199">
         <v>2006</v>
       </c>
-      <c r="D199" s="101">
+      <c r="D199" s="89">
         <v>951773</v>
       </c>
     </row>
@@ -4281,7 +4329,7 @@
       <c r="C200">
         <v>2007</v>
       </c>
-      <c r="D200" s="101">
+      <c r="D200" s="89">
         <v>1049239</v>
       </c>
     </row>
@@ -4292,7 +4340,7 @@
       <c r="C201">
         <v>2008</v>
       </c>
-      <c r="D201" s="101">
+      <c r="D201" s="89">
         <v>931405</v>
       </c>
     </row>
@@ -4303,7 +4351,7 @@
       <c r="C202">
         <v>2009</v>
       </c>
-      <c r="D202" s="101">
+      <c r="D202" s="89">
         <v>834060</v>
       </c>
     </row>
@@ -4314,7 +4362,7 @@
       <c r="C203">
         <v>2000</v>
       </c>
-      <c r="D203" s="101">
+      <c r="D203" s="89">
         <v>4731199</v>
       </c>
     </row>
@@ -4325,7 +4373,7 @@
       <c r="C204">
         <v>2001</v>
       </c>
-      <c r="D204" s="101">
+      <c r="D204" s="89">
         <v>4159859</v>
       </c>
     </row>
@@ -4336,7 +4384,7 @@
       <c r="C205">
         <v>2002</v>
       </c>
-      <c r="D205" s="101">
+      <c r="D205" s="89">
         <v>3980819</v>
       </c>
     </row>
@@ -4347,7 +4395,7 @@
       <c r="C206">
         <v>2003</v>
       </c>
-      <c r="D206" s="101">
+      <c r="D206" s="89">
         <v>4302940</v>
       </c>
     </row>
@@ -4358,7 +4406,7 @@
       <c r="C207">
         <v>2004</v>
       </c>
-      <c r="D207" s="101">
+      <c r="D207" s="89">
         <v>4655823</v>
       </c>
     </row>
@@ -4369,7 +4417,7 @@
       <c r="C208">
         <v>2005</v>
       </c>
-      <c r="D208" s="101">
+      <c r="D208" s="89">
         <v>4571867</v>
       </c>
     </row>
@@ -4380,7 +4428,7 @@
       <c r="C209">
         <v>2006</v>
       </c>
-      <c r="D209" s="101">
+      <c r="D209" s="89">
         <v>4356750</v>
       </c>
     </row>
@@ -4391,7 +4439,7 @@
       <c r="C210">
         <v>2007</v>
       </c>
-      <c r="D210" s="101">
+      <c r="D210" s="89">
         <v>4356347</v>
       </c>
     </row>
@@ -4402,7 +4450,7 @@
       <c r="C211">
         <v>2008</v>
       </c>
-      <c r="D211" s="101">
+      <c r="D211" s="89">
         <v>4849185</v>
       </c>
     </row>
@@ -4413,7 +4461,7 @@
       <c r="C212">
         <v>2009</v>
       </c>
-      <c r="D212" s="101">
+      <c r="D212" s="89">
         <v>5035141</v>
       </c>
     </row>
@@ -4581,12 +4629,12 @@
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="85"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="92"/>
       <c r="H10" s="33">
         <f>COUNTBLANK(C4:F4) + COUNTBLANK(C7:F7)</f>
         <v>4</v>
@@ -4952,15 +5000,15 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="87"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="94"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -5719,20 +5767,20 @@
     </row>
     <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="89" t="s">
+      <c r="D14" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="98"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D16" s="75" t="str">
@@ -5741,12 +5789,12 @@
       </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="92" t="s">
+      <c r="D17" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D18" s="75" t="str">
@@ -5804,11 +5852,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
     </row>
     <row r="2" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -6255,10 +6303,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="93"/>
+      <c r="C1" s="100"/>
       <c r="E1" s="82" t="s">
         <v>105</v>
       </c>
@@ -6639,7 +6687,7 @@
       <c r="B4" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="94">
+      <c r="C4" s="83">
         <v>-456</v>
       </c>
     </row>
@@ -6663,7 +6711,7 @@
       <c r="B7" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="94">
+      <c r="C7" s="83">
         <v>-456987</v>
       </c>
     </row>
